--- a/WIP-PP/endpointak.xlsx
+++ b/WIP-PP/endpointak.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\probi\Desktop\datu-atzipena23-24\6- ProiektuPertsonala\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\probi\Desktop\datu-atzipena23-24\WIP-PP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E03F752-98B1-4142-AFD7-33622D94D89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A88CFB-8599-4C9B-B984-0927D7D8D667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2795C04-2ABA-4842-81DF-BC8154F4258F}"/>
   </bookViews>
@@ -86,9 +86,6 @@
     <t>Company baten izena eskatzen dio erabiltzaileari eta DDBBtik ezabatzen du.</t>
   </si>
   <si>
-    <t>/api/sectors/{sector}</t>
-  </si>
-  <si>
     <t>/api/sectors/{id}</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>Erabiltzaileak sektore bat sartzen du eta sektore horretako enpresa guztien Data-ren batazbestekoa erakuzten du. intentsitateak eta profitabilitya kalkulatu egin behar dira (marketcap/sales*100, R&amp;D/sales*100, opProfit/sales*100). Urteroko igoerak kalkulatzeak ordea ez du zentzurik ditugun datuekin ez litzatekelako datu egokirik lortuko, beraz null bezala agertuko da.</t>
+  </si>
+  <si>
+    <t>/api/sectors/sector/{sector}</t>
   </si>
 </sst>
 </file>
@@ -184,13 +184,13 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -209,12 +209,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{110B5814-DAA0-45DC-B4E2-158F7AE1D23C}" name="Tabla3" displayName="Tabla3" ref="B2:D15" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{110B5814-DAA0-45DC-B4E2-158F7AE1D23C}" name="Tabla3" displayName="Tabla3" ref="B2:D15" totalsRowShown="0" dataDxfId="3">
   <autoFilter ref="B2:D15" xr:uid="{110B5814-DAA0-45DC-B4E2-158F7AE1D23C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{665BAE1D-690F-4FD7-B9C9-7C9B13C7BAC8}" name="Mota " dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{F85D5812-64EC-4684-91BE-1037C21E7EB6}" name="EndPointa" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{7772ACD6-A639-4E99-ABC0-6805BA6E1895}" name="Emaitza" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{665BAE1D-690F-4FD7-B9C9-7C9B13C7BAC8}" name="Mota " dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F85D5812-64EC-4684-91BE-1037C21E7EB6}" name="EndPointa" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{7772ACD6-A639-4E99-ABC0-6805BA6E1895}" name="Emaitza" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -520,7 +520,7 @@
   <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,10 +578,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -589,10 +589,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -600,10 +600,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -611,10 +611,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -622,10 +622,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -633,10 +633,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="72" x14ac:dyDescent="0.3">
@@ -644,10 +644,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -655,10 +655,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
